--- a/biology/Botanique/Guamatelaceae/Guamatelaceae.xlsx
+++ b/biology/Botanique/Guamatelaceae/Guamatelaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Guamatelaceae sont une famille d'angiospermes dicotylédones appartenant à l'ordre des Crossosomatales. Cette famille comprend une seule espèce, Guamatela nutckheimii, répartie au Guatemala, au Honduras et au Mexique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Guamatela qui est une anagramme de Guatemala, pays où la plante a été découverte. Le nom de ce pays est à son tour dérivé de mots en langue Nahuatl (langue aztèque) Coactlmoctllan, Cuauhtemallan ou Quauhtlemallan.
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Guamatelacées n'ont été acceptées que récemment par la classification phylogénétique APG III (2009)[2]. Dans d'autres systèmes de classification, le genre Guamatela avait été inclus dans les rosacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Guamatelacées n'ont été acceptées que récemment par la classification phylogénétique APG III (2009). Dans d'autres systèmes de classification, le genre Guamatela avait été inclus dans les rosacées.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 juin 2010)[3], Angiosperm Phylogeny Website                        (2 juin 2010)[4], GRIN            (2 juin 2010)[5] et DELTA Angio           (2 juin 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 juin 2010), Angiosperm Phylogeny Website                        (2 juin 2010), GRIN            (2 juin 2010) et DELTA Angio           (2 juin 2010) :
 genre Guamatela Donn. Sm.
 Guamatela tuerckheimii Donn. Sm.</t>
         </is>
